--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5316,7 +5317,6 @@
           <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>91.56</t>
@@ -5331,6 +5331,822 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7974</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2582</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6153,4 +6154,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7920</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6666,4 +6667,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.15000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6675,7 +6676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6686,17 +6687,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6706,14 +6727,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.47</v>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6722,14 +6765,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.45</v>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6738,14 +6803,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.41</v>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6754,13 +6841,415 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7148,7 +7149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7159,17 +7160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7179,14 +7200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.71</v>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7195,14 +7238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.47</v>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -7211,14 +7276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.45</v>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7227,14 +7314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.41</v>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -7243,13 +7352,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>74</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7699,7 +7700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7710,17 +7711,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7730,14 +7751,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.65</v>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7746,14 +7789,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.71</v>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7762,14 +7827,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.47</v>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7778,14 +7865,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.45</v>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7794,14 +7903,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>52</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37.41</v>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -7810,13 +7941,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>74</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>6.71</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>7.47</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>11.45</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>37.41</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>
@@ -666,12 +683,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -681,7 +698,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0088</t>
+          <t>0.7718</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.84</t>
+          <t>16.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.6113</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3218</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -780,22 +797,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0801</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010162</t>
+          <t>010026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票C</t>
+          <t>广发聚瑞混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,32 +863,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010026</t>
+          <t>010162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发聚瑞混合C</t>
+          <t>广发瑞安精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0219</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,6 +901,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1905,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2417,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3233,7 +3534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5258,7 +5559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300677-英科医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>7.47</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>11.45</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>37.41</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2898 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>74</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>81.15000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.0161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>204.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.4688</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>136.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3813</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3597</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4419</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2259</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6827</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6812</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6812</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4286</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3951</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7327</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4629</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162412</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝中证医疗指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>34.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +3507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +3568,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>18.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>90.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7718</t>
+          <t>0.8258</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +3606,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>87.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6113</t>
+          <t>0.6895</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,26 +3644,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2528</t>
+          <t>0.2667</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +3682,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>87.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,36 +3710,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010026</t>
+          <t>002133</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发聚瑞混合C</t>
+          <t>广发鑫益灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0438</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -873,26 +3758,138 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -967,12 +3964,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -982,7 +3979,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0088</t>
+          <t>0.7718</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1005,22 +4002,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.84</t>
+          <t>16.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8588</t>
+          <t>0.6113</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1043,26 +4040,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3218</t>
+          <t>0.2528</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1081,22 +4078,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0801</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1109,36 +4106,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010162</t>
+          <t>010026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票C</t>
+          <t>广发聚瑞混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1147,32 +4144,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010026</t>
+          <t>010162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发聚瑞混合C</t>
+          <t>广发瑞安精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0219</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1185,6 +4182,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +5015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2206,7 +5487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2718,7 +5999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3534,7 +6815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5557,2872 +8838,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003095</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧医疗健康混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>232.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>13.0161</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003096</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>204.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11.4688</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001875</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.6342</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004851</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发医疗保健股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>136.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.3813</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001102</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源国家比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.5509</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001679</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源中国稀缺资产灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>42.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.4551</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001717</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>68.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3.3597</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001837</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>37.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3.3183</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000831</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信医疗保健行业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>42.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.9427</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006228</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧医疗创新股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>40.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.4419</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000960</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商医药健康产业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>32.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.2259</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002079</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源中国稀缺资产灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>26.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.1610</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>66.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.9583</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001171</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信养老产业股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>30.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.6827</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009275</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.6812</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161616</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合A/B</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.6812</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006229</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧医疗创新股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>23.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.4286</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.3951</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>270021</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.0222</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005454</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源医疗健康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.9910</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005453</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源医疗健康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.8002</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.7327</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001874</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.6389</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501078</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20.57</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.6027</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>240020</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华宝医药生物优选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.4629</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>512170</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝中证医疗ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.4282</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>159967</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华夏创业板动量成长ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>13.55</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>99.30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.4282</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009163</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发医疗保健股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.4240</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>18.53</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3354</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.3027</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>162412</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华宝中证医疗指数</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2989</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009364</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2524</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2196</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2031</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001070</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>建信信息产业股票</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1886</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008962</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>建信科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1692</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1656</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>161035</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>富国中证医药主题指数增强型（LOF）</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1557</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>000059</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>13.53</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1515</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001550</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>天弘中证医药100指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1486</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>515860</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1421</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1301</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1272</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1171</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>008107</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华商医药医疗行业股票</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1010</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010685</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>001551</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>天弘中证医药100指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>000308</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>建信创新中国混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.48</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>502056</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001681</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>新华积极价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>34.26</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>009365</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>009881</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>002271</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>161037</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>001531</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>招商安益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>006255</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>中邮中证价值回报量化策略指数A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>010026</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>159918</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>嘉实中创400ETF</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>99.18</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>003646</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>008230</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>九泰天辰量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>003647</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>006569</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>006256</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>中邮中证价值回报量化策略指数C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>